--- a/data/trans_orig/P14B18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B18-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62906BBF-2B7A-4886-B775-B32D09626775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C98EB500-E38F-47F8-9760-BEBD6280F6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F0258419-B205-41AC-A0C6-96F8B375A7D4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB87B6DC-3A02-4B9B-8926-37BFC7501812}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -106,16 +106,16 @@
     <t>66,69%</t>
   </si>
   <si>
-    <t>16,69%</t>
+    <t>17,59%</t>
   </si>
   <si>
     <t>45,15%</t>
   </si>
   <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -124,16 +124,16 @@
     <t>33,31%</t>
   </si>
   <si>
-    <t>83,31%</t>
+    <t>82,41%</t>
   </si>
   <si>
     <t>54,85%</t>
   </si>
   <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -145,19 +145,19 @@
     <t>31,07%</t>
   </si>
   <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
   </si>
   <si>
     <t>76,67%</t>
@@ -166,19 +166,19 @@
     <t>68,93%</t>
   </si>
   <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
   </si>
   <si>
     <t>69,84%</t>
   </si>
   <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -187,55 +187,55 @@
     <t>69,17%</t>
   </si>
   <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
   </si>
   <si>
     <t>40,28%</t>
   </si>
   <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
   </si>
   <si>
     <t>30,83%</t>
   </si>
   <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
   </si>
   <si>
     <t>59,72%</t>
   </si>
   <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
   </si>
   <si>
     <t>53,27%</t>
   </si>
   <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -244,49 +244,49 @@
     <t>56,67%</t>
   </si>
   <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
   </si>
   <si>
     <t>53,95%</t>
   </si>
   <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
   </si>
   <si>
     <t>43,33%</t>
   </si>
   <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
   </si>
   <si>
     <t>46,05%</t>
   </si>
   <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -295,109 +295,109 @@
     <t>80,17%</t>
   </si>
   <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
   </si>
   <si>
     <t>67,37%</t>
   </si>
   <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
   </si>
   <si>
     <t>70,72%</t>
   </si>
   <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
   </si>
   <si>
     <t>19,83%</t>
   </si>
   <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
   </si>
   <si>
     <t>32,63%</t>
   </si>
   <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
   </si>
   <si>
     <t>29,28%</t>
   </si>
   <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
   </si>
   <si>
     <t>71,52%</t>
   </si>
   <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
   </si>
   <si>
     <t>58,59%</t>
   </si>
   <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
   </si>
   <si>
     <t>61,66%</t>
   </si>
   <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
   </si>
   <si>
     <t>28,48%</t>
   </si>
   <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
   </si>
   <si>
     <t>41,41%</t>
   </si>
   <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
   </si>
   <si>
     <t>38,34%</t>
   </si>
   <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -415,7 +415,7 @@
     <t>29,15%</t>
   </si>
   <si>
-    <t>68,07%</t>
+    <t>71,23%</t>
   </si>
   <si>
     <t>66,98%</t>
@@ -427,223 +427,235 @@
     <t>70,85%</t>
   </si>
   <si>
-    <t>31,93%</t>
+    <t>28,77%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>32,97%</t>
+    <t>33,66%</t>
   </si>
   <si>
     <t>89,11%</t>
   </si>
   <si>
-    <t>67,03%</t>
+    <t>66,34%</t>
   </si>
   <si>
     <t>28,79%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
   </si>
   <si>
     <t>26,5%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
   </si>
   <si>
     <t>27,21%</t>
   </si>
   <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
   </si>
   <si>
     <t>71,21%</t>
   </si>
   <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
   </si>
   <si>
     <t>73,5%</t>
   </si>
   <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
   </si>
   <si>
     <t>72,79%</t>
   </si>
   <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
   </si>
   <si>
     <t>46,15%</t>
   </si>
   <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
   </si>
   <si>
     <t>47,25%</t>
   </si>
   <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
   </si>
   <si>
     <t>47,0%</t>
   </si>
   <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
   </si>
   <si>
     <t>53,85%</t>
   </si>
   <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
   </si>
   <si>
     <t>52,75%</t>
   </si>
   <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
   </si>
   <si>
     <t>53,0%</t>
   </si>
   <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
   </si>
   <si>
     <t>41,6%</t>
   </si>
   <si>
-    <t>55,56%</t>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
   </si>
   <si>
     <t>54,94%</t>
   </si>
   <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
   </si>
   <si>
     <t>51,48%</t>
   </si>
   <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
   </si>
   <si>
     <t>58,4%</t>
   </si>
   <si>
-    <t>44,44%</t>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
   </si>
   <si>
     <t>45,06%</t>
   </si>
   <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
   </si>
   <si>
     <t>48,52%</t>
   </si>
   <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
   </si>
   <si>
     <t>39,56%</t>
   </si>
   <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
   </si>
   <si>
     <t>47,02%</t>
   </si>
   <si>
-    <t>40,81%</t>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
   </si>
   <si>
     <t>45,2%</t>
   </si>
   <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
   </si>
   <si>
     <t>60,44%</t>
   </si>
   <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
   </si>
   <si>
     <t>52,98%</t>
   </si>
   <si>
-    <t>59,19%</t>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
   </si>
   <si>
     <t>54,8%</t>
   </si>
   <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
   </si>
   <si>
     <t>Población cuya mala circulación le limita en 2023 (Tasa respuesta: 8,56%)</t>
@@ -682,253 +694,241 @@
     <t>61,94%</t>
   </si>
   <si>
-    <t>20,66%</t>
+    <t>20,57%</t>
   </si>
   <si>
     <t>27,91%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
   </si>
   <si>
     <t>36,17%</t>
   </si>
   <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
   </si>
   <si>
     <t>38,06%</t>
   </si>
   <si>
-    <t>79,34%</t>
+    <t>79,43%</t>
   </si>
   <si>
     <t>72,09%</t>
   </si>
   <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
   </si>
   <si>
     <t>63,83%</t>
   </si>
   <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
   </si>
   <si>
     <t>37,71%</t>
   </si>
   <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
   </si>
   <si>
     <t>42,5%</t>
   </si>
   <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
   </si>
   <si>
     <t>41,03%</t>
   </si>
   <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
   </si>
   <si>
     <t>62,29%</t>
   </si>
   <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
   </si>
   <si>
     <t>57,5%</t>
   </si>
   <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
   </si>
   <si>
     <t>58,97%</t>
   </si>
   <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
   </si>
   <si>
     <t>30,64%</t>
   </si>
   <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
   </si>
   <si>
     <t>30,59%</t>
   </si>
   <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
   </si>
   <si>
     <t>30,6%</t>
   </si>
   <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
   </si>
   <si>
     <t>69,36%</t>
   </si>
   <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
   </si>
   <si>
     <t>69,41%</t>
   </si>
   <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
   </si>
   <si>
     <t>69,4%</t>
   </si>
   <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
   </si>
   <si>
     <t>34,03%</t>
   </si>
   <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
   </si>
   <si>
     <t>40,23%</t>
   </si>
   <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
+    <t>43,27%</t>
   </si>
   <si>
     <t>65,97%</t>
   </si>
   <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
   </si>
   <si>
     <t>59,77%</t>
   </si>
   <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
   </si>
   <si>
     <t>61,64%</t>
   </si>
   <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
+    <t>56,73%</t>
   </si>
   <si>
     <t>34,97%</t>
   </si>
   <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
   </si>
   <si>
     <t>33,14%</t>
   </si>
   <si>
-    <t>42,79%</t>
+    <t>43,49%</t>
   </si>
   <si>
     <t>36,56%</t>
   </si>
   <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
   </si>
   <si>
     <t>65,03%</t>
   </si>
   <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
   </si>
   <si>
     <t>66,86%</t>
@@ -937,10 +937,10 @@
     <t>63,44%</t>
   </si>
   <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11704E39-9663-437A-AC71-7E47CF8B0755}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA1BA18-E8ED-4657-A163-9DEAE051BC28}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2565,7 +2565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EE0C52-F9E6-48B9-8D4C-49556FDDBDB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CED5CE-6770-411F-97EB-7D19B867AA67}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3455,10 +3455,10 @@
         <v>170</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H19" s="7">
         <v>70</v>
@@ -3467,13 +3467,13 @@
         <v>85220</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M19" s="7">
         <v>94</v>
@@ -3482,13 +3482,13 @@
         <v>107841</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,13 +3503,13 @@
         <v>31754</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="H20" s="7">
         <v>60</v>
@@ -3518,13 +3518,13 @@
         <v>69887</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M20" s="7">
         <v>94</v>
@@ -3533,13 +3533,13 @@
         <v>101641</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,13 +3607,13 @@
         <v>32324</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H22" s="7">
         <v>100</v>
@@ -3622,13 +3622,13 @@
         <v>119013</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="M22" s="7">
         <v>132</v>
@@ -3637,13 +3637,13 @@
         <v>151337</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,13 +3658,13 @@
         <v>49388</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H23" s="7">
         <v>121</v>
@@ -3673,13 +3673,13 @@
         <v>134110</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M23" s="7">
         <v>171</v>
@@ -3688,13 +3688,13 @@
         <v>183498</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,7 +3772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1845045A-8331-4DCC-B9DE-D35EB6402720}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315031A4-5050-43B7-9A64-993DECF0175C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3789,7 +3789,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3917,7 +3917,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3965,7 +3965,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -4066,13 +4066,13 @@
         <v>967</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4081,13 +4081,13 @@
         <v>2259</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,10 +4117,10 @@
         <v>4387</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -4132,10 +4132,10 @@
         <v>4387</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -4206,10 +4206,10 @@
         <v>3782</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -4221,13 +4221,13 @@
         <v>5318</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -4236,13 +4236,13 @@
         <v>9100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,13 +4257,13 @@
         <v>2325</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -4272,13 +4272,13 @@
         <v>13733</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M11" s="7">
         <v>23</v>
@@ -4287,13 +4287,13 @@
         <v>16058</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,13 +4361,13 @@
         <v>10354</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -4376,13 +4376,13 @@
         <v>26246</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -4391,13 +4391,13 @@
         <v>36600</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,13 +4412,13 @@
         <v>17100</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H14" s="7">
         <v>56</v>
@@ -4427,13 +4427,13 @@
         <v>35503</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M14" s="7">
         <v>72</v>
@@ -4442,13 +4442,13 @@
         <v>52603</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4516,13 @@
         <v>9194</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -4531,13 +4531,13 @@
         <v>18368</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -4546,13 +4546,13 @@
         <v>27562</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +4567,13 @@
         <v>20812</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
         <v>67</v>
@@ -4582,13 +4582,13 @@
         <v>41685</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>89</v>
@@ -4597,13 +4597,13 @@
         <v>62497</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4671,13 @@
         <v>26918</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H19" s="7">
         <v>129</v>
@@ -4686,13 +4686,13 @@
         <v>73311</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M19" s="7">
         <v>173</v>
@@ -4701,13 +4701,13 @@
         <v>100229</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4722,13 @@
         <v>52175</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>209</v>
@@ -4737,13 +4737,13 @@
         <v>108902</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>291</v>
@@ -4752,13 +4752,13 @@
         <v>161077</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>282</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +4826,13 @@
         <v>51541</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H22" s="7">
         <v>197</v>
@@ -4841,13 +4841,13 @@
         <v>124210</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>286</v>
+        <v>64</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M22" s="7">
         <v>266</v>
@@ -4856,13 +4856,13 @@
         <v>175751</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4877,13 @@
         <v>95833</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H23" s="7">
         <v>359</v>
@@ -4892,7 +4892,7 @@
         <v>209148</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>295</v>
+        <v>56</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>296</v>

--- a/data/trans_orig/P14B18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B18-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C98EB500-E38F-47F8-9760-BEBD6280F6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3BF9FFB-E137-45E2-A764-D7DAFA1736C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB87B6DC-3A02-4B9B-8926-37BFC7501812}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8C406951-C4A9-4428-BC38-F8D5CE9216AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="305">
   <si>
     <t>Población cuya mala circulación le limita en 2012 (Tasa respuesta: 6,19%)</t>
   </si>
@@ -106,16 +106,16 @@
     <t>66,69%</t>
   </si>
   <si>
-    <t>17,59%</t>
+    <t>16,83%</t>
   </si>
   <si>
     <t>45,15%</t>
   </si>
   <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -124,16 +124,16 @@
     <t>33,31%</t>
   </si>
   <si>
-    <t>82,41%</t>
+    <t>83,17%</t>
   </si>
   <si>
     <t>54,85%</t>
   </si>
   <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -145,19 +145,19 @@
     <t>31,07%</t>
   </si>
   <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
   </si>
   <si>
     <t>76,67%</t>
@@ -166,19 +166,19 @@
     <t>68,93%</t>
   </si>
   <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
   </si>
   <si>
     <t>69,84%</t>
   </si>
   <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -187,745 +187,757 @@
     <t>69,17%</t>
   </si>
   <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
   </si>
   <si>
     <t>40,28%</t>
   </si>
   <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>33,92%</t>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya mala circulación le limita en 2016 (Tasa respuesta: 4,61%)</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>Población cuya mala circulación le limita en 2023 (Tasa respuesta: 8,56%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
   </si>
   <si>
     <t>62,74%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya mala circulación le limita en 2015 (Tasa respuesta: 4,61%)</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>Población cuya mala circulación le limita en 2023 (Tasa respuesta: 8,56%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
   </si>
   <si>
     <t>56,51%</t>
@@ -1352,7 +1364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA1BA18-E8ED-4657-A163-9DEAE051BC28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7622BFD0-D028-4F33-8E1A-CAB441099504}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2565,7 +2577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CED5CE-6770-411F-97EB-7D19B867AA67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33431B45-D2EF-4247-9E77-D14386233920}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3772,7 +3784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315031A4-5050-43B7-9A64-993DECF0175C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B248C60F-9C8C-4C85-9680-9C82204A0E2B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4704,10 +4716,10 @@
         <v>275</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4734,13 @@
         <v>52175</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H20" s="7">
         <v>209</v>
@@ -4737,13 +4749,13 @@
         <v>108902</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M20" s="7">
         <v>291</v>
@@ -4752,13 +4764,13 @@
         <v>161077</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>71</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +4838,13 @@
         <v>51541</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H22" s="7">
         <v>197</v>
@@ -4841,13 +4853,13 @@
         <v>124210</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>64</v>
+        <v>290</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M22" s="7">
         <v>266</v>
@@ -4856,13 +4868,13 @@
         <v>175751</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4889,13 @@
         <v>95833</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H23" s="7">
         <v>359</v>
@@ -4892,13 +4904,13 @@
         <v>209148</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>56</v>
+        <v>299</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M23" s="7">
         <v>482</v>
@@ -4907,13 +4919,13 @@
         <v>304981</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
